--- a/SchedulingData/static4/pso/scheduling1_14.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_14.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.90000000000001</v>
+        <v>42.7</v>
       </c>
       <c r="E2" t="n">
-        <v>24.3</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>76.09999999999999</v>
+        <v>55.46</v>
       </c>
       <c r="E3" t="n">
-        <v>26.52</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="4">
@@ -504,74 +504,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>122.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>53.2</v>
+        <v>131.52</v>
       </c>
       <c r="E5" t="n">
-        <v>26.36</v>
+        <v>22.628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>58.2</v>
+        <v>76.54000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>26.88</v>
+        <v>25.996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>86.54000000000001</v>
+        <v>51.6</v>
       </c>
       <c r="E7" t="n">
-        <v>25.996</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>122.7</v>
+        <v>131.52</v>
       </c>
       <c r="D8" t="n">
-        <v>188.64</v>
+        <v>193.92</v>
       </c>
       <c r="E8" t="n">
-        <v>19.016</v>
+        <v>18.988</v>
       </c>
     </row>
     <row r="9">
@@ -599,283 +599,283 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>53.2</v>
+        <v>42.7</v>
       </c>
       <c r="D9" t="n">
-        <v>116.42</v>
+        <v>123.7</v>
       </c>
       <c r="E9" t="n">
-        <v>22.148</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>86.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.74</v>
+        <v>43.1</v>
       </c>
       <c r="E10" t="n">
-        <v>21.916</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>133.74</v>
+        <v>123.7</v>
       </c>
       <c r="D11" t="n">
-        <v>199.48</v>
+        <v>169.9</v>
       </c>
       <c r="E11" t="n">
-        <v>18.952</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>116.42</v>
+        <v>55.46</v>
       </c>
       <c r="D12" t="n">
-        <v>196.02</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>16.828</v>
+        <v>22.212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>68.90000000000001</v>
+        <v>76.54000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>148.66</v>
+        <v>137.68</v>
       </c>
       <c r="E13" t="n">
-        <v>18.924</v>
+        <v>22.012</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>67.7</v>
+        <v>181.8</v>
       </c>
       <c r="E14" t="n">
-        <v>27.36</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>199.48</v>
+        <v>193.92</v>
       </c>
       <c r="D15" t="n">
-        <v>276.9</v>
+        <v>276.22</v>
       </c>
       <c r="E15" t="n">
-        <v>15.3</v>
+        <v>16.348</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>148.66</v>
+        <v>181.8</v>
       </c>
       <c r="D16" t="n">
-        <v>188.28</v>
+        <v>235.82</v>
       </c>
       <c r="E16" t="n">
-        <v>16.092</v>
+        <v>14.008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>196.02</v>
+        <v>276.22</v>
       </c>
       <c r="D17" t="n">
-        <v>258.22</v>
+        <v>332.08</v>
       </c>
       <c r="E17" t="n">
-        <v>13.708</v>
+        <v>13.852</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>188.64</v>
+        <v>51.6</v>
       </c>
       <c r="D18" t="n">
-        <v>279.16</v>
+        <v>124.62</v>
       </c>
       <c r="E18" t="n">
-        <v>13.584</v>
+        <v>21.828</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>67.7</v>
+        <v>169.9</v>
       </c>
       <c r="D19" t="n">
-        <v>124.9</v>
+        <v>214.5</v>
       </c>
       <c r="E19" t="n">
-        <v>24.24</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>258.22</v>
+        <v>43.1</v>
       </c>
       <c r="D20" t="n">
-        <v>314.12</v>
+        <v>111.5</v>
       </c>
       <c r="E20" t="n">
-        <v>9.747999999999999</v>
+        <v>21.18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>58.2</v>
+        <v>111.5</v>
       </c>
       <c r="D21" t="n">
-        <v>113.06</v>
+        <v>158.9</v>
       </c>
       <c r="E21" t="n">
-        <v>22.524</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>113.06</v>
+        <v>332.08</v>
       </c>
       <c r="D22" t="n">
-        <v>153.78</v>
+        <v>370.52</v>
       </c>
       <c r="E22" t="n">
-        <v>19.092</v>
+        <v>11.148</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>279.16</v>
+        <v>158.9</v>
       </c>
       <c r="D23" t="n">
-        <v>326.26</v>
+        <v>225.9</v>
       </c>
       <c r="E23" t="n">
-        <v>11.504</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="24">
@@ -884,131 +884,131 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>124.9</v>
+        <v>137.68</v>
       </c>
       <c r="D24" t="n">
-        <v>203.16</v>
+        <v>195.3</v>
       </c>
       <c r="E24" t="n">
-        <v>20.544</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>276.9</v>
+        <v>124.62</v>
       </c>
       <c r="D25" t="n">
-        <v>330.62</v>
+        <v>177.88</v>
       </c>
       <c r="E25" t="n">
-        <v>12.528</v>
+        <v>18.132</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>326.26</v>
+        <v>235.82</v>
       </c>
       <c r="D26" t="n">
-        <v>372.52</v>
+        <v>302.72</v>
       </c>
       <c r="E26" t="n">
-        <v>9.007999999999999</v>
+        <v>10.928</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>314.12</v>
+        <v>302.72</v>
       </c>
       <c r="D27" t="n">
-        <v>357.36</v>
+        <v>388.36</v>
       </c>
       <c r="E27" t="n">
-        <v>7.044</v>
+        <v>7.964</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>153.78</v>
+        <v>225.9</v>
       </c>
       <c r="D28" t="n">
-        <v>192.38</v>
+        <v>303</v>
       </c>
       <c r="E28" t="n">
-        <v>16.372</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>203.16</v>
+        <v>303</v>
       </c>
       <c r="D29" t="n">
-        <v>279.86</v>
+        <v>382.32</v>
       </c>
       <c r="E29" t="n">
-        <v>15.504</v>
+        <v>8.028</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>188.28</v>
+        <v>177.88</v>
       </c>
       <c r="D30" t="n">
-        <v>244.42</v>
+        <v>272.38</v>
       </c>
       <c r="E30" t="n">
-        <v>12.588</v>
+        <v>12.812</v>
       </c>
     </row>
     <row r="31">
@@ -1017,55 +1017,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>279.86</v>
+        <v>195.3</v>
       </c>
       <c r="D31" t="n">
-        <v>324.46</v>
+        <v>258.3</v>
       </c>
       <c r="E31" t="n">
-        <v>12.664</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>324.46</v>
+        <v>272.38</v>
       </c>
       <c r="D32" t="n">
-        <v>364.08</v>
+        <v>332.54</v>
       </c>
       <c r="E32" t="n">
-        <v>10.332</v>
+        <v>7.436</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>192.38</v>
+        <v>214.5</v>
       </c>
       <c r="D33" t="n">
-        <v>264.08</v>
+        <v>275.74</v>
       </c>
       <c r="E33" t="n">
-        <v>13.292</v>
+        <v>14.576</v>
       </c>
     </row>
   </sheetData>
